--- a/pickle/rolling_corr_excel_target_index_MSCI EM_simulation_term_type_2_window_size_27.xlsx
+++ b/pickle/rolling_corr_excel_target_index_MSCI EM_simulation_term_type_2_window_size_27.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="252">
   <si>
     <t>MSCI EM_BBA-10Y Spread</t>
   </si>
@@ -35,24 +35,6 @@
     <t>MSCI EM_CNY/USD</t>
   </si>
   <si>
-    <t>MSCI EM_CPB 선진국 산업생산</t>
-  </si>
-  <si>
-    <t>MSCI EM_CPB 선진국 수출</t>
-  </si>
-  <si>
-    <t>MSCI EM_CPB 세계교역</t>
-  </si>
-  <si>
-    <t>MSCI EM_CPB 세계생산</t>
-  </si>
-  <si>
-    <t>MSCI EM_CPB 이머징 산업생산</t>
-  </si>
-  <si>
-    <t>MSCI EM_CPB 이머징 수출</t>
-  </si>
-  <si>
     <t>MSCI EM_CPI 주거비</t>
   </si>
   <si>
@@ -203,18 +185,9 @@
     <t>MSCI EM_Nikkei225 P/E</t>
   </si>
   <si>
-    <t>MSCI EM_OECD ASIA 5 경기선행지수</t>
-  </si>
-  <si>
-    <t>MSCI EM_OECD G7 경기선행지수</t>
-  </si>
-  <si>
     <t>MSCI EM_OECD 소비자물가</t>
   </si>
   <si>
-    <t>MSCI EM_OECD+6NME 경기선행지수</t>
-  </si>
-  <si>
     <t>MSCI EM_OITP 인덱스</t>
   </si>
   <si>
@@ -374,12 +347,6 @@
     <t>MSCI EM_두바이유가</t>
   </si>
   <si>
-    <t>MSCI EM_러시아 OECD 경기선행지수</t>
-  </si>
-  <si>
-    <t>MSCI EM_러시아 수출 YoY</t>
-  </si>
-  <si>
     <t>MSCI EM_미국 10년 투기적포지션</t>
   </si>
   <si>
@@ -401,18 +368,12 @@
     <t>MSCI EM_미국 NAHB 주택시장지수</t>
   </si>
   <si>
-    <t>MSCI EM_미국 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>MSCI EM_미국 PD 일평균 국채거래량</t>
   </si>
   <si>
     <t>MSCI EM_미국 REER</t>
   </si>
   <si>
-    <t>MSCI EM_미국 S&amp;P 케이스쉴러 주택가격</t>
-  </si>
-  <si>
     <t>MSCI EM_미국 개인근로소득 YoY</t>
   </si>
   <si>
@@ -515,9 +476,6 @@
     <t>MSCI EM_발틱 해운임지수</t>
   </si>
   <si>
-    <t>MSCI EM_브라질 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>MSCI EM_브라질 REER</t>
   </si>
   <si>
@@ -557,12 +515,6 @@
     <t>MSCI EM_유럽 M3 YoY</t>
   </si>
   <si>
-    <t>MSCI EM_유럽 OECD 경기선행지수</t>
-  </si>
-  <si>
-    <t>MSCI EM_유럽 산업생산(건설 제외) YoY</t>
-  </si>
-  <si>
     <t>MSCI EM_유럽 소매판매 YoY</t>
   </si>
   <si>
@@ -584,9 +536,6 @@
     <t>MSCI EM_유로존 Core CPI</t>
   </si>
   <si>
-    <t>MSCI EM_유로존 Credit Impulse</t>
-  </si>
-  <si>
     <t>MSCI EM_유로존 ESI</t>
   </si>
   <si>
@@ -596,9 +545,6 @@
     <t>MSCI EM_유로존 소비자신뢰지수</t>
   </si>
   <si>
-    <t>MSCI EM_인도 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>MSCI EM_인도 REER</t>
   </si>
   <si>
@@ -614,15 +560,9 @@
     <t>MSCI EM_일본 ESI</t>
   </si>
   <si>
-    <t>MSCI EM_일본 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>MSCI EM_일본 REER</t>
   </si>
   <si>
-    <t>MSCI EM_일본 경기선행지수</t>
-  </si>
-  <si>
     <t>MSCI EM_일본 산업생산 YoY</t>
   </si>
   <si>
@@ -659,9 +599,6 @@
     <t>MSCI EM_중국 M1 YoY</t>
   </si>
   <si>
-    <t>MSCI EM_중국 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>MSCI EM_중국 PPI</t>
   </si>
   <si>
@@ -699,18 +636,6 @@
   </si>
   <si>
     <t>MSCI EM_한국 Core CPI</t>
-  </si>
-  <si>
-    <t>MSCI EM_한국 M1 YoY</t>
-  </si>
-  <si>
-    <t>MSCI EM_한국 M2 YoY</t>
-  </si>
-  <si>
-    <t>MSCI EM_한국 M3 YoY</t>
-  </si>
-  <si>
-    <t>MSCI EM_한국 OECD 경기선행지수</t>
   </si>
   <si>
     <t>MSCI EM_한국 PPI</t>
@@ -1212,7 +1137,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JO4"/>
+  <dimension ref="A1:IP4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1220,7 +1145,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:275">
+    <row r="1" spans="1:250">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1968,921 +1893,771 @@
       <c r="IP1" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="IQ1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:250">
+      <c r="A2" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="IR1" s="1" t="s">
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DJ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DL2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DM2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DP2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DX2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="ED2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EE2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EF2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="ER2" t="n">
+        <v>1</v>
+      </c>
+      <c r="ES2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="ET2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EU2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FB2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FI2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FK2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FP2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FY2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FZ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GA2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GI2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GK2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GP2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GQ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GR2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GZ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HC2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HD2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HF2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HI2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HN2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HP2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HQ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HR2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HT2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HZ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IB2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IC2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="ID2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IF2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IG2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IH2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="II2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IM2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IN2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IP2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:250">
+      <c r="A3" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="IS1" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="IT1" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="IU1" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="IV1" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="IW1" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="IX1" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="IY1" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="IZ1" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="JA1" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="JB1" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="JC1" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="JD1" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="JE1" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="JF1" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="JG1" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="JH1" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="JI1" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="JJ1" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="JK1" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="JL1" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="JM1" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="JN1" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="JO1" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="2" spans="1:275">
-      <c r="A2" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1</v>
-      </c>
-      <c r="T2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="BM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="BQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BR2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="BS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="BW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CG2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CS2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DA2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DL2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DU2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EB2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="EC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="ED2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EK2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="EL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EQ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="ER2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="ES2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="ET2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FB2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FF2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FG2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FU2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FW2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FY2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GE2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GF2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GI2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GQ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GT2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HC2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HE2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HJ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HK2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HL2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HM2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HU2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HV2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HW2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IB2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IC2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="ID2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IE2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="II2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IJ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IK2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IM2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IO2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IQ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IS2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IY2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IZ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JA2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JB2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JC2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JF2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JG2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JJ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JM2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JO2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:275">
-      <c r="A3" s="1" t="s">
-        <v>275</v>
-      </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -2891,31 +2666,31 @@
         <v>3</v>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -2927,124 +2702,124 @@
         <v>3</v>
       </c>
       <c r="S3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA3" t="n">
         <v>3</v>
       </c>
       <c r="AB3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB3" t="n">
         <v>2</v>
       </c>
-      <c r="AC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>0</v>
-      </c>
       <c r="BC3" t="n">
         <v>0</v>
       </c>
       <c r="BD3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BE3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BF3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BG3" t="n">
         <v>0</v>
@@ -3053,61 +2828,61 @@
         <v>0</v>
       </c>
       <c r="BI3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BK3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL3" t="n">
         <v>0</v>
       </c>
       <c r="BM3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BN3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BO3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BP3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BR3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BS3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BT3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BU3" t="n">
         <v>3</v>
       </c>
       <c r="BV3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BW3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BX3" t="n">
         <v>3</v>
       </c>
       <c r="BY3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BZ3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CA3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CB3" t="n">
         <v>0</v>
@@ -3116,49 +2891,49 @@
         <v>3</v>
       </c>
       <c r="CD3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CE3" t="n">
         <v>0</v>
       </c>
       <c r="CF3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CP3" t="n">
         <v>2</v>
       </c>
-      <c r="CH3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP3" t="n">
-        <v>3</v>
-      </c>
       <c r="CQ3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CS3" t="n">
         <v>3</v>
@@ -3167,40 +2942,40 @@
         <v>0</v>
       </c>
       <c r="CU3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CV3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CW3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB3" t="n">
         <v>2</v>
       </c>
-      <c r="CV3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX3" t="n">
-        <v>3</v>
-      </c>
-      <c r="CY3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CZ3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB3" t="n">
-        <v>1</v>
-      </c>
       <c r="DC3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DD3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="DE3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="DF3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="DG3" t="n">
         <v>3</v>
@@ -3209,337 +2984,337 @@
         <v>0</v>
       </c>
       <c r="DI3" t="n">
+        <v>3</v>
+      </c>
+      <c r="DJ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="DK3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN3" t="n">
         <v>2</v>
       </c>
-      <c r="DJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK3" t="n">
+      <c r="DO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT3" t="n">
+        <v>3</v>
+      </c>
+      <c r="DU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV3" t="n">
+        <v>3</v>
+      </c>
+      <c r="DW3" t="n">
+        <v>3</v>
+      </c>
+      <c r="DX3" t="n">
+        <v>3</v>
+      </c>
+      <c r="DY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ3" t="n">
         <v>2</v>
       </c>
-      <c r="DL3" t="n">
-        <v>3</v>
-      </c>
-      <c r="DM3" t="n">
+      <c r="EA3" t="n">
+        <v>3</v>
+      </c>
+      <c r="EB3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EC3" t="n">
+        <v>3</v>
+      </c>
+      <c r="ED3" t="n">
         <v>2</v>
       </c>
-      <c r="DN3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DO3" t="n">
+      <c r="EE3" t="n">
+        <v>3</v>
+      </c>
+      <c r="EF3" t="n">
+        <v>3</v>
+      </c>
+      <c r="EG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH3" t="n">
         <v>2</v>
       </c>
-      <c r="DP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR3" t="n">
-        <v>3</v>
-      </c>
-      <c r="DS3" t="n">
-        <v>3</v>
-      </c>
-      <c r="DT3" t="n">
-        <v>3</v>
-      </c>
-      <c r="DU3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DV3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DW3" t="n">
-        <v>3</v>
-      </c>
-      <c r="DX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH3" t="n">
-        <v>0</v>
-      </c>
       <c r="EI3" t="n">
         <v>0</v>
       </c>
       <c r="EJ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="EK3" t="n">
+        <v>3</v>
+      </c>
+      <c r="EL3" t="n">
         <v>2</v>
       </c>
-      <c r="EK3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EL3" t="n">
-        <v>0</v>
-      </c>
       <c r="EM3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="EN3" t="n">
         <v>3</v>
       </c>
       <c r="EO3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="EQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER3" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES3" t="n">
+        <v>3</v>
+      </c>
+      <c r="ET3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EV3" t="n">
+        <v>3</v>
+      </c>
+      <c r="EW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX3" t="n">
+        <v>3</v>
+      </c>
+      <c r="EY3" t="n">
+        <v>3</v>
+      </c>
+      <c r="EZ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FA3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FB3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FC3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FD3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FE3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FF3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FG3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FH3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ3" t="n">
         <v>2</v>
       </c>
-      <c r="ER3" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES3" t="n">
-        <v>3</v>
-      </c>
-      <c r="ET3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU3" t="n">
+      <c r="FK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL3" t="n">
         <v>2</v>
       </c>
-      <c r="EV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW3" t="n">
-        <v>3</v>
-      </c>
-      <c r="EX3" t="n">
+      <c r="FM3" t="n">
         <v>2</v>
       </c>
-      <c r="EY3" t="n">
+      <c r="FN3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP3" t="n">
         <v>2</v>
       </c>
-      <c r="EZ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FA3" t="n">
+      <c r="FQ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FR3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FS3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU3" t="n">
         <v>2</v>
       </c>
-      <c r="FB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FD3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK3" t="n">
+      <c r="FV3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FW3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GB3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GC3" t="n">
         <v>2</v>
       </c>
-      <c r="FL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ3" t="n">
+      <c r="GD3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GE3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GH3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GL3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GM3" t="n">
         <v>2</v>
       </c>
-      <c r="FR3" t="n">
+      <c r="GN3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GO3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GP3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GT3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GX3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GY3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GZ3" t="n">
         <v>2</v>
       </c>
-      <c r="FS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FU3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FW3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GA3" t="n">
-        <v>2</v>
-      </c>
-      <c r="GB3" t="n">
-        <v>2</v>
-      </c>
-      <c r="GC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GR3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GS3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GV3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GW3" t="n">
-        <v>2</v>
-      </c>
-      <c r="GX3" t="n">
-        <v>2</v>
-      </c>
-      <c r="GY3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GZ3" t="n">
-        <v>1</v>
-      </c>
       <c r="HA3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="HB3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="HC3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="HD3" t="n">
         <v>0</v>
       </c>
       <c r="HE3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="HF3" t="n">
         <v>0</v>
       </c>
       <c r="HG3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="HH3" t="n">
         <v>0</v>
       </c>
       <c r="HI3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="HJ3" t="n">
         <v>3</v>
       </c>
       <c r="HK3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="HL3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="HM3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HN3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="HO3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="HP3" t="n">
         <v>0</v>
@@ -3548,981 +3323,831 @@
         <v>2</v>
       </c>
       <c r="HR3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="HS3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="HT3" t="n">
         <v>3</v>
       </c>
       <c r="HU3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HV3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HW3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HX3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HY3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE3" t="n">
+        <v>3</v>
+      </c>
+      <c r="IF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG3" t="n">
         <v>2</v>
       </c>
-      <c r="HV3" t="n">
-        <v>1</v>
-      </c>
-      <c r="HW3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HX3" t="n">
+      <c r="IH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="II3" t="n">
+        <v>3</v>
+      </c>
+      <c r="IJ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="IK3" t="n">
+        <v>1</v>
+      </c>
+      <c r="IL3" t="n">
+        <v>3</v>
+      </c>
+      <c r="IM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN3" t="n">
         <v>2</v>
       </c>
-      <c r="HY3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HZ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IB3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="ID3" t="n">
-        <v>2</v>
-      </c>
-      <c r="IE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IF3" t="n">
-        <v>2</v>
-      </c>
-      <c r="IG3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="II3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IJ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IN3" t="n">
-        <v>1</v>
-      </c>
       <c r="IO3" t="n">
         <v>0</v>
       </c>
       <c r="IP3" t="n">
-        <v>1</v>
-      </c>
-      <c r="IQ3" t="n">
-        <v>1</v>
-      </c>
-      <c r="IR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IS3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IT3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IU3" t="n">
-        <v>2</v>
-      </c>
-      <c r="IV3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IW3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IX3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JA3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JD3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JE3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JH3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JI3" t="n">
-        <v>2</v>
-      </c>
-      <c r="JJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JK3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JL3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JM3" t="n">
-        <v>1</v>
-      </c>
-      <c r="JN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JO3" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:275">
+    <row r="4" spans="1:250">
       <c r="A4" s="1" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.9200888391661377</v>
+        <v>-0.9280111841783999</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9331164086800495</v>
+        <v>0.90853435422006</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9074697664701008</v>
+        <v>0.8718658268456259</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8784177956833855</v>
+        <v>0.7567536206658622</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6188084758843483</v>
+        <v>0.497763260055464</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3897584750310045</v>
+        <v>-0.6825968361181736</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9576337806905889</v>
+        <v>0.9016468967294105</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9418407806719481</v>
+        <v>0.8978871611872036</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9390472894338475</v>
+        <v>0.4137037521300912</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9733586375863804</v>
+        <v>0.378934238651375</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9654352597152844</v>
+        <v>-0.5314432979728786</v>
       </c>
       <c r="M4" t="n">
-        <v>0.8756602835369164</v>
+        <v>0.930989693858798</v>
       </c>
       <c r="N4" t="n">
-        <v>0.9654833445830179</v>
+        <v>-0.8180511973123377</v>
       </c>
       <c r="O4" t="n">
-        <v>0.915825725015796</v>
+        <v>0.9301695413767778</v>
       </c>
       <c r="P4" t="n">
-        <v>0.5499967089687773</v>
+        <v>0.9494514403353566</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.5319722451431912</v>
+        <v>0.8965808501425016</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.8103698241831043</v>
+        <v>0.4988924096745161</v>
       </c>
       <c r="S4" t="n">
-        <v>0.957387445139435</v>
+        <v>0.6359560354823757</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.8348008731738987</v>
+        <v>-0.4744387792404872</v>
       </c>
       <c r="U4" t="n">
-        <v>0.8850074838030773</v>
+        <v>0.8661781758958893</v>
       </c>
       <c r="V4" t="n">
-        <v>0.8472952980673477</v>
+        <v>0.6272593798512553</v>
       </c>
       <c r="W4" t="n">
-        <v>0.8865832420798448</v>
+        <v>0.9300967927727547</v>
       </c>
       <c r="X4" t="n">
-        <v>0.5861505471945825</v>
+        <v>0.855598860440528</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.6550850038638183</v>
+        <v>-0.3190242404553942</v>
       </c>
       <c r="Z4" t="n">
-        <v>-0.719790750476117</v>
+        <v>0.8903470701415643</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.8792509376082673</v>
+        <v>0.678111155684298</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.6897502868323464</v>
+        <v>0.8817750591139323</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.9481784858209291</v>
+        <v>0.5782854742382049</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.8853303630379346</v>
+        <v>0.9133696816107737</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.05819103251855451</v>
+        <v>0.7371948855225542</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.8884635581295086</v>
+        <v>0.7188846634966725</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.6895050099451796</v>
+        <v>0.5493783030366576</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.9026599714475391</v>
+        <v>0.3520063674776206</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.6728316959360439</v>
+        <v>0.9565018866254741</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.9270192132987529</v>
+        <v>-0.2136425710690903</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.7419287188155669</v>
+        <v>0.9151638219442026</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.6398257529307507</v>
+        <v>-0.202213210205329</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.7975999683021863</v>
+        <v>-0.8253218182486549</v>
       </c>
       <c r="AN4" t="n">
-        <v>-0.1262362279213438</v>
+        <v>-0.7892131119887092</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.9612538709027456</v>
+        <v>0.9282342452072686</v>
       </c>
       <c r="AP4" t="n">
-        <v>-0.4181838357366602</v>
+        <v>0.08697024409427639</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.9264963851127394</v>
+        <v>-0.7965352023182929</v>
       </c>
       <c r="AR4" t="n">
-        <v>-0.377686366800715</v>
+        <v>-0.5897548925624588</v>
       </c>
       <c r="AS4" t="n">
-        <v>-0.6473321801376615</v>
+        <v>0.9928839243075681</v>
       </c>
       <c r="AT4" t="n">
-        <v>-0.8095034824941991</v>
+        <v>0.9738165483093874</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.9440632929564693</v>
+        <v>0.9553633055208223</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.3524715058779351</v>
+        <v>0.986500783375017</v>
       </c>
       <c r="AW4" t="n">
-        <v>-0.8078034319931336</v>
+        <v>1</v>
       </c>
       <c r="AX4" t="n">
-        <v>-0.7042719497769623</v>
+        <v>0.9949940461746709</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.9959797433622294</v>
+        <v>0.9636778708121072</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.9917459884392499</v>
+        <v>0.9503020287057924</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.9792603536634791</v>
+        <v>0.9817943947196636</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.9908213776698165</v>
+        <v>0.9191760749764702</v>
       </c>
       <c r="BC4" t="n">
-        <v>1</v>
+        <v>0.8286970991169267</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.9978988945568735</v>
+        <v>0.8211781541319597</v>
       </c>
       <c r="BE4" t="n">
-        <v>0.988447183162542</v>
+        <v>0.4343100961989612</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.9729183767724362</v>
+        <v>0.8375148855881835</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.9825451804001806</v>
+        <v>-0.4829567715089776</v>
       </c>
       <c r="BH4" t="n">
-        <v>0.9122288722009521</v>
+        <v>0.7768857172835296</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.9117437881155459</v>
+        <v>-0.2392152696828251</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0.7765302812309096</v>
+        <v>0.8612409053572895</v>
       </c>
       <c r="BK4" t="n">
-        <v>0.3482428595966119</v>
+        <v>0.8362316128369445</v>
       </c>
       <c r="BL4" t="n">
-        <v>-0.2642491166935302</v>
+        <v>-0.3544329284709749</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.8798863324027708</v>
+        <v>-0.7830554697277409</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.8671915718926589</v>
+        <v>0.9457149790990941</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.9683498082125417</v>
+        <v>0.8173600984778905</v>
       </c>
       <c r="BP4" t="n">
-        <v>-0.4664667849733956</v>
+        <v>0.9354962053340822</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0.8375207057028927</v>
+        <v>0.5346275838163702</v>
       </c>
       <c r="BR4" t="n">
-        <v>-0.1939786486058151</v>
+        <v>0.914885906265666</v>
       </c>
       <c r="BS4" t="n">
-        <v>0.8649488577278032</v>
+        <v>0.8905031147667767</v>
       </c>
       <c r="BT4" t="n">
-        <v>0.8298848862820176</v>
+        <v>0.6761746248335344</v>
       </c>
       <c r="BU4" t="n">
-        <v>0.5789237745916822</v>
+        <v>0.9514042862737554</v>
       </c>
       <c r="BV4" t="n">
-        <v>-0.4687705003575909</v>
+        <v>0.9329929561896684</v>
       </c>
       <c r="BW4" t="n">
-        <v>0.9828228074889903</v>
+        <v>0.943741372549418</v>
       </c>
       <c r="BX4" t="n">
-        <v>0.9021920418719758</v>
+        <v>-0.814288342129999</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.9644185093433585</v>
+        <v>-0.5725292796504883</v>
       </c>
       <c r="BZ4" t="n">
-        <v>0.790942923839223</v>
+        <v>0.7523843979426889</v>
       </c>
       <c r="CA4" t="n">
-        <v>0.9804532723346887</v>
+        <v>0.9317012804494563</v>
       </c>
       <c r="CB4" t="n">
-        <v>0.9318829897512181</v>
+        <v>0.8441195657073109</v>
       </c>
       <c r="CC4" t="n">
-        <v>0.6818085928711326</v>
+        <v>0.8897765767281089</v>
       </c>
       <c r="CD4" t="n">
-        <v>0.8865413824194043</v>
+        <v>0.51332626121986</v>
       </c>
       <c r="CE4" t="n">
-        <v>0.8236269092228818</v>
+        <v>0.5955412962825563</v>
       </c>
       <c r="CF4" t="n">
-        <v>0.8211021719777326</v>
+        <v>0.8818845135028092</v>
       </c>
       <c r="CG4" t="n">
-        <v>-0.8880905850412502</v>
+        <v>-0.4342751254300638</v>
       </c>
       <c r="CH4" t="n">
-        <v>-0.5409989628747943</v>
+        <v>0.6877257862676227</v>
       </c>
       <c r="CI4" t="n">
-        <v>0.6232615635960338</v>
+        <v>0.5605439067250847</v>
       </c>
       <c r="CJ4" t="n">
-        <v>0.9125882496047606</v>
+        <v>-0.4064169089419685</v>
       </c>
       <c r="CK4" t="n">
-        <v>0.8730993992536092</v>
+        <v>0.6447674236637554</v>
       </c>
       <c r="CL4" t="n">
-        <v>0.8153730837114326</v>
+        <v>-0.2226455317678672</v>
       </c>
       <c r="CM4" t="n">
-        <v>0.4330873395951356</v>
+        <v>0.635005761602071</v>
       </c>
       <c r="CN4" t="n">
-        <v>0.7668006613398695</v>
+        <v>0.9082273646253959</v>
       </c>
       <c r="CO4" t="n">
-        <v>0.8137133886396899</v>
+        <v>-0.4148228618062153</v>
       </c>
       <c r="CP4" t="n">
-        <v>-0.784272689823011</v>
+        <v>0.9010425109604868</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0.8196949074849313</v>
+        <v>0.8971557025269611</v>
       </c>
       <c r="CR4" t="n">
-        <v>0.6370994817342472</v>
+        <v>-0.3705742538049261</v>
       </c>
       <c r="CS4" t="n">
-        <v>-0.04466287549091951</v>
+        <v>0.9212366427736721</v>
       </c>
       <c r="CT4" t="n">
-        <v>0.5291945450897259</v>
+        <v>0.4442931773719255</v>
       </c>
       <c r="CU4" t="n">
-        <v>-0.08365717617511757</v>
+        <v>0.8580105995382458</v>
       </c>
       <c r="CV4" t="n">
-        <v>0.6544277164854276</v>
+        <v>0.8492701316451159</v>
       </c>
       <c r="CW4" t="n">
-        <v>0.9780246731088289</v>
+        <v>0.861682753700218</v>
       </c>
       <c r="CX4" t="n">
-        <v>-0.1749460531756916</v>
+        <v>0.8273845193830164</v>
       </c>
       <c r="CY4" t="n">
-        <v>0.8930478291055168</v>
+        <v>-0.7934802605842588</v>
       </c>
       <c r="CZ4" t="n">
-        <v>0.9792307564329394</v>
+        <v>0.7155628657049325</v>
       </c>
       <c r="DA4" t="n">
-        <v>-0.5227175693534367</v>
+        <v>0.7993685664849899</v>
       </c>
       <c r="DB4" t="n">
-        <v>0.9289796316690003</v>
+        <v>0.9359642330412288</v>
       </c>
       <c r="DC4" t="n">
-        <v>0.545541946446183</v>
+        <v>0.2868771673691387</v>
       </c>
       <c r="DD4" t="n">
-        <v>0.8496905911697341</v>
+        <v>0.6755654758438033</v>
       </c>
       <c r="DE4" t="n">
-        <v>0.8756208946205533</v>
+        <v>0.7110609368629773</v>
       </c>
       <c r="DF4" t="n">
-        <v>0.8866465171246362</v>
+        <v>0.1136230089159394</v>
       </c>
       <c r="DG4" t="n">
-        <v>0.9576642979071143</v>
+        <v>0.7747927890102309</v>
       </c>
       <c r="DH4" t="n">
-        <v>-0.6957146425956947</v>
+        <v>-0.2261434004120323</v>
       </c>
       <c r="DI4" t="n">
-        <v>0.7942117729282808</v>
+        <v>0.6766268818832274</v>
       </c>
       <c r="DJ4" t="n">
-        <v>0.7210100439365101</v>
+        <v>-0.847953919011078</v>
       </c>
       <c r="DK4" t="n">
-        <v>0.9222406115408944</v>
+        <v>0.3921320578640047</v>
       </c>
       <c r="DL4" t="n">
-        <v>-0.6439134106140554</v>
+        <v>-0.5536588925185215</v>
       </c>
       <c r="DM4" t="n">
-        <v>0.7413766665699391</v>
+        <v>-0.9239831021757312</v>
       </c>
       <c r="DN4" t="n">
-        <v>0.7657419838108397</v>
+        <v>0.7752294800952537</v>
       </c>
       <c r="DO4" t="n">
-        <v>0.2347114533091876</v>
+        <v>0.3375868470689788</v>
       </c>
       <c r="DP4" t="n">
-        <v>0.8759132851646272</v>
+        <v>-0.5858695497681314</v>
       </c>
       <c r="DQ4" t="n">
-        <v>0.8447154825490923</v>
+        <v>0.9082273646253959</v>
       </c>
       <c r="DR4" t="n">
-        <v>0.8132215248021035</v>
+        <v>0.9034385290632223</v>
       </c>
       <c r="DS4" t="n">
-        <v>0.2303067151959944</v>
+        <v>0.9555601677126027</v>
       </c>
       <c r="DT4" t="n">
-        <v>0.7559950613443703</v>
+        <v>0.7201144765321955</v>
       </c>
       <c r="DU4" t="n">
-        <v>-0.8077612157724422</v>
+        <v>0.8335878990787835</v>
       </c>
       <c r="DV4" t="n">
-        <v>0.4650988191352892</v>
+        <v>0.5573253874673596</v>
       </c>
       <c r="DW4" t="n">
-        <v>0.2962934897836447</v>
+        <v>0.9131070695549177</v>
       </c>
       <c r="DX4" t="n">
-        <v>-0.8326882927367478</v>
+        <v>-0.9689542030390016</v>
       </c>
       <c r="DY4" t="n">
-        <v>0.7917159908866621</v>
+        <v>0.9266104376812883</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0.9116639679535937</v>
+        <v>0.7423354976712946</v>
       </c>
       <c r="EA4" t="n">
-        <v>0.2762555418085006</v>
+        <v>0.9534183419784038</v>
       </c>
       <c r="EB4" t="n">
-        <v>-0.643203059756623</v>
+        <v>0.8952637735186428</v>
       </c>
       <c r="EC4" t="n">
-        <v>0.916222393063141</v>
+        <v>0.4987063188616758</v>
       </c>
       <c r="ED4" t="n">
-        <v>0.9780246731088289</v>
+        <v>-0.790017982784215</v>
       </c>
       <c r="EE4" t="n">
-        <v>0.9678453006067603</v>
+        <v>-0.1738288796926324</v>
       </c>
       <c r="EF4" t="n">
-        <v>0.9250245286520415</v>
+        <v>-0.08701751484715924</v>
       </c>
       <c r="EG4" t="n">
-        <v>0.7277481832841429</v>
+        <v>0.8173216297823888</v>
       </c>
       <c r="EH4" t="n">
-        <v>0.9155172495638284</v>
+        <v>0.9183123674300766</v>
       </c>
       <c r="EI4" t="n">
-        <v>0.4333236722424082</v>
+        <v>0.6781636947388322</v>
       </c>
       <c r="EJ4" t="n">
-        <v>0.9179030877500851</v>
+        <v>0.8009828158198219</v>
       </c>
       <c r="EK4" t="n">
-        <v>-0.9275087648184904</v>
+        <v>0.9004220643447505</v>
       </c>
       <c r="EL4" t="n">
-        <v>0.9858567429655178</v>
+        <v>0.8364206601196096</v>
       </c>
       <c r="EM4" t="n">
-        <v>0.7309093982073737</v>
+        <v>0.7772738303901148</v>
       </c>
       <c r="EN4" t="n">
-        <v>0.9597197672227024</v>
+        <v>0.8163368808565412</v>
       </c>
       <c r="EO4" t="n">
-        <v>0.9288542609402394</v>
+        <v>-0.9142240437429088</v>
       </c>
       <c r="EP4" t="n">
-        <v>0.6196817376633275</v>
+        <v>0.8786074119828157</v>
       </c>
       <c r="EQ4" t="n">
-        <v>-0.7688116676727001</v>
+        <v>0.1195281374809628</v>
       </c>
       <c r="ER4" t="n">
-        <v>-0.5597263035128272</v>
+        <v>0.8208577643007255</v>
       </c>
       <c r="ES4" t="n">
-        <v>-0.2548755422540452</v>
+        <v>-0.8656542148375481</v>
       </c>
       <c r="ET4" t="n">
-        <v>0.8656926744571768</v>
+        <v>-0.8251104457156279</v>
       </c>
       <c r="EU4" t="n">
-        <v>0.9587465527122822</v>
+        <v>-0.9215440486759594</v>
       </c>
       <c r="EV4" t="n">
-        <v>0.3168979305352176</v>
+        <v>0.7071726307726083</v>
       </c>
       <c r="EW4" t="n">
-        <v>0.861550521542</v>
+        <v>0.7741043191294752</v>
       </c>
       <c r="EX4" t="n">
-        <v>0.9178846871659646</v>
+        <v>0.847573168627202</v>
       </c>
       <c r="EY4" t="n">
-        <v>0.8589109266641834</v>
+        <v>0.4260382452659128</v>
       </c>
       <c r="EZ4" t="n">
-        <v>0.8337183676454839</v>
+        <v>0.8458126040301936</v>
       </c>
       <c r="FA4" t="n">
-        <v>0.8752930052532852</v>
+        <v>0.7426045287362348</v>
       </c>
       <c r="FB4" t="n">
-        <v>-0.9518764923312014</v>
+        <v>-0.7828570784574258</v>
       </c>
       <c r="FC4" t="n">
-        <v>0.9546621291350221</v>
+        <v>0.378934238651375</v>
       </c>
       <c r="FD4" t="n">
-        <v>0.1838161927702056</v>
+        <v>0.9072375168807926</v>
       </c>
       <c r="FE4" t="n">
-        <v>0.7770716659402673</v>
+        <v>0.782641456913298</v>
       </c>
       <c r="FF4" t="n">
-        <v>-0.8492454234027625</v>
+        <v>0.3687729561783079</v>
       </c>
       <c r="FG4" t="n">
-        <v>-0.923854210836876</v>
+        <v>-0.6735075545591842</v>
       </c>
       <c r="FH4" t="n">
-        <v>-0.9105855229437331</v>
+        <v>0.7815948041593149</v>
       </c>
       <c r="FI4" t="n">
-        <v>0.7439627884031537</v>
+        <v>-0.1486976041551172</v>
       </c>
       <c r="FJ4" t="n">
-        <v>0.7911782413131387</v>
+        <v>0.04403966826785793</v>
       </c>
       <c r="FK4" t="n">
-        <v>0.8423668967619619</v>
+        <v>-0.5407370119997242</v>
       </c>
       <c r="FL4" t="n">
-        <v>0.9697467054008014</v>
+        <v>0.3184163004969157</v>
       </c>
       <c r="FM4" t="n">
-        <v>0.6465524686618853</v>
+        <v>0.9498866786928086</v>
       </c>
       <c r="FN4" t="n">
-        <v>0.856624685989497</v>
+        <v>0.8983160090776123</v>
       </c>
       <c r="FO4" t="n">
-        <v>0.7830437018675926</v>
+        <v>-0.6760845423798879</v>
       </c>
       <c r="FP4" t="n">
-        <v>-0.6843612379644018</v>
+        <v>-0.9014631373157584</v>
       </c>
       <c r="FQ4" t="n">
-        <v>0.5319722451431912</v>
+        <v>0.8464999358574327</v>
       </c>
       <c r="FR4" t="n">
-        <v>0.9223166943639923</v>
+        <v>0.5056622709084738</v>
       </c>
       <c r="FS4" t="n">
-        <v>0.685933372195952</v>
+        <v>0.3883101020321053</v>
       </c>
       <c r="FT4" t="n">
-        <v>0.4344466544159642</v>
+        <v>0.7896982743348725</v>
       </c>
       <c r="FU4" t="n">
-        <v>-0.3840198569582877</v>
+        <v>0.9498866786928086</v>
       </c>
       <c r="FV4" t="n">
-        <v>0.8109331555363047</v>
+        <v>0.797359533173447</v>
       </c>
       <c r="FW4" t="n">
-        <v>-0.3288333819744819</v>
+        <v>0.755606947129677</v>
       </c>
       <c r="FX4" t="n">
-        <v>-0.1375997081646957</v>
+        <v>0.8401924247889757</v>
       </c>
       <c r="FY4" t="n">
-        <v>-0.5140985604999515</v>
+        <v>-0.5524235147554342</v>
       </c>
       <c r="FZ4" t="n">
-        <v>0.7685987987053375</v>
+        <v>-0.447997750186606</v>
       </c>
       <c r="GA4" t="n">
-        <v>0.5162574597870948</v>
+        <v>-0.7797031338924286</v>
       </c>
       <c r="GB4" t="n">
-        <v>0.2797559488970867</v>
+        <v>0.6848699390677893</v>
       </c>
       <c r="GC4" t="n">
-        <v>0.9143573648240817</v>
+        <v>0.7082834479771574</v>
       </c>
       <c r="GD4" t="n">
-        <v>0.8027594373713522</v>
+        <v>0.3231571867879814</v>
       </c>
       <c r="GE4" t="n">
-        <v>-0.4714219983487413</v>
+        <v>0.9162565836692211</v>
       </c>
       <c r="GF4" t="n">
-        <v>-0.8482416322464946</v>
+        <v>0.888405225050407</v>
       </c>
       <c r="GG4" t="n">
-        <v>0.8708932161387856</v>
+        <v>0.4201780679796126</v>
       </c>
       <c r="GH4" t="n">
-        <v>0.4449915018107092</v>
+        <v>0.8950003046049854</v>
       </c>
       <c r="GI4" t="n">
-        <v>-0.9167756964811185</v>
+        <v>-0.7053027107735406</v>
       </c>
       <c r="GJ4" t="n">
-        <v>0.6090233093912992</v>
+        <v>0</v>
       </c>
       <c r="GK4" t="n">
-        <v>0.7547130504233008</v>
+        <v>-0.248821217226306</v>
       </c>
       <c r="GL4" t="n">
-        <v>0.9143573648240817</v>
+        <v>0.269982749937366</v>
       </c>
       <c r="GM4" t="n">
-        <v>0.5083902321772165</v>
+        <v>0.9421038650075905</v>
       </c>
       <c r="GN4" t="n">
-        <v>0.8555901427140142</v>
+        <v>0.8498385813465839</v>
       </c>
       <c r="GO4" t="n">
-        <v>0.4944701488608413</v>
+        <v>-0.4017313718837514</v>
       </c>
       <c r="GP4" t="n">
-        <v>0.8066108042085317</v>
+        <v>-0.5489304735798676</v>
       </c>
       <c r="GQ4" t="n">
-        <v>-0.7516109937609219</v>
+        <v>-2.039155279764095e-16</v>
       </c>
       <c r="GR4" t="n">
-        <v>0.2009131018416855</v>
+        <v>-2.039155279764095e-16</v>
       </c>
       <c r="GS4" t="n">
-        <v>0.7815688590657066</v>
+        <v>0.6971651958298238</v>
       </c>
       <c r="GT4" t="n">
-        <v>-0.5157739071318636</v>
+        <v>0.66783571475755</v>
       </c>
       <c r="GU4" t="n">
-        <v>0.7379000521713169</v>
+        <v>0</v>
       </c>
       <c r="GV4" t="n">
-        <v>0.7807017681254672</v>
+        <v>0.2682927177309229</v>
       </c>
       <c r="GW4" t="n">
-        <v>0.7328401757987383</v>
+        <v>0.3314291956985355</v>
       </c>
       <c r="GX4" t="n">
-        <v>0.4652848108194995</v>
+        <v>0.4206682833026671</v>
       </c>
       <c r="GY4" t="n">
-        <v>0.8998676260223724</v>
+        <v>0.5680340175213606</v>
       </c>
       <c r="GZ4" t="n">
-        <v>0.9002597607146631</v>
+        <v>-0.5024335860512736</v>
       </c>
       <c r="HA4" t="n">
-        <v>0.3742878812021412</v>
+        <v>0.7755851739590423</v>
       </c>
       <c r="HB4" t="n">
-        <v>0.8610537482241835</v>
+        <v>0.5851354840884017</v>
       </c>
       <c r="HC4" t="n">
-        <v>-0.7911622956809634</v>
+        <v>-0.378020534613592</v>
       </c>
       <c r="HD4" t="n">
-        <v>0</v>
+        <v>-0.789415417062261</v>
       </c>
       <c r="HE4" t="n">
-        <v>-0.2926284857473263</v>
+        <v>0.5274314576720268</v>
       </c>
       <c r="HF4" t="n">
-        <v>0.3435757300097686</v>
+        <v>-0.4641972644351106</v>
       </c>
       <c r="HG4" t="n">
-        <v>0.9510306161483293</v>
+        <v>0.6760924685262029</v>
       </c>
       <c r="HH4" t="n">
-        <v>-0.8053038523588368</v>
+        <v>0.9316618334954898</v>
       </c>
       <c r="HI4" t="n">
-        <v>0.8947982064883627</v>
+        <v>-0.8399227365705301</v>
       </c>
       <c r="HJ4" t="n">
-        <v>-0.7346953916430166</v>
+        <v>0.2654867796317246</v>
       </c>
       <c r="HK4" t="n">
-        <v>-0.7016664998699963</v>
+        <v>0.611351760498571</v>
       </c>
       <c r="HL4" t="n">
-        <v>-7.535094647686377e-16</v>
+        <v>0.792775099203314</v>
       </c>
       <c r="HM4" t="n">
-        <v>-7.535094647686377e-16</v>
+        <v>0.7702594639631937</v>
       </c>
       <c r="HN4" t="n">
-        <v>0.7514879444690334</v>
+        <v>-0.2266989653784278</v>
       </c>
       <c r="HO4" t="n">
-        <v>0.7204939210145757</v>
+        <v>-0.217689164494755</v>
       </c>
       <c r="HP4" t="n">
-        <v>0</v>
+        <v>-0.5818271612748677</v>
       </c>
       <c r="HQ4" t="n">
-        <v>0.1861034295390745</v>
+        <v>-0.1815971806103208</v>
       </c>
       <c r="HR4" t="n">
-        <v>0.2802104563965948</v>
+        <v>-0.7483559799678613</v>
       </c>
       <c r="HS4" t="n">
-        <v>0.5466329928611188</v>
+        <v>0.913527787285515</v>
       </c>
       <c r="HT4" t="n">
-        <v>0.7179316573208466</v>
+        <v>-0.3323616475194734</v>
       </c>
       <c r="HU4" t="n">
-        <v>-0.6119878329035928</v>
+        <v>0.6419900515957726</v>
       </c>
       <c r="HV4" t="n">
-        <v>-0.9130012292093118</v>
+        <v>0.5030410196193641</v>
       </c>
       <c r="HW4" t="n">
-        <v>-0.9309205257796324</v>
+        <v>0.7334824228859026</v>
       </c>
       <c r="HX4" t="n">
-        <v>-0.9524538271709934</v>
+        <v>0.7069477856058262</v>
       </c>
       <c r="HY4" t="n">
-        <v>0.2305732382145515</v>
+        <v>0.5754167599151021</v>
       </c>
       <c r="HZ4" t="n">
-        <v>0.866174474625407</v>
+        <v>-0.5590097618052063</v>
       </c>
       <c r="IA4" t="n">
-        <v>0.6789861760219207</v>
+        <v>-0.6085238779780725</v>
       </c>
       <c r="IB4" t="n">
-        <v>-0.4959212312899025</v>
+        <v>-0.2044445380286141</v>
       </c>
       <c r="IC4" t="n">
-        <v>-0.6792071559023504</v>
+        <v>-0.6231071203207033</v>
       </c>
       <c r="ID4" t="n">
-        <v>0.5082640662484992</v>
+        <v>-0.8795130618081728</v>
       </c>
       <c r="IE4" t="n">
-        <v>-0.0801304663383139</v>
+        <v>0.8117891549865461</v>
       </c>
       <c r="IF4" t="n">
-        <v>0.5697512409904824</v>
+        <v>-0.1627862794601045</v>
       </c>
       <c r="IG4" t="n">
-        <v>0.9668103844002988</v>
+        <v>-0.8422291769065171</v>
       </c>
       <c r="IH4" t="n">
-        <v>-0.7998509616145354</v>
+        <v>-0.6989261618349357</v>
       </c>
       <c r="II4" t="n">
-        <v>0.4312236009568386</v>
+        <v>0.8117891549865461</v>
       </c>
       <c r="IJ4" t="n">
-        <v>-0.4131151019843481</v>
+        <v>0.7583696522886693</v>
       </c>
       <c r="IK4" t="n">
-        <v>-0.2574127795520526</v>
+        <v>-0.3039685878403689</v>
       </c>
       <c r="IL4" t="n">
-        <v>0.8117988256378836</v>
+        <v>0.2861180010534095</v>
       </c>
       <c r="IM4" t="n">
-        <v>-0.158729679728775</v>
+        <v>-0.5149421725410412</v>
       </c>
       <c r="IN4" t="n">
-        <v>0.1232139613814939</v>
+        <v>-0.7668548274976243</v>
       </c>
       <c r="IO4" t="n">
-        <v>-0.4481235425408363</v>
+        <v>0.9742624255522753</v>
       </c>
       <c r="IP4" t="n">
-        <v>-0.1503380694172082</v>
-      </c>
-      <c r="IQ4" t="n">
-        <v>-0.8010070873826877</v>
-      </c>
-      <c r="IR4" t="n">
-        <v>0.9648445204136008</v>
-      </c>
-      <c r="IS4" t="n">
-        <v>-0.4664792679197453</v>
-      </c>
-      <c r="IT4" t="n">
-        <v>0.6668423313054642</v>
-      </c>
-      <c r="IU4" t="n">
-        <v>0.5850872308484852</v>
-      </c>
-      <c r="IV4" t="n">
-        <v>0.7934432333529772</v>
-      </c>
-      <c r="IW4" t="n">
-        <v>0.7858376826118018</v>
-      </c>
-      <c r="IX4" t="n">
-        <v>0.765710386206339</v>
-      </c>
-      <c r="IY4" t="n">
-        <v>-0.365744418188754</v>
-      </c>
-      <c r="IZ4" t="n">
-        <v>-0.6369284731476658</v>
-      </c>
-      <c r="JA4" t="n">
-        <v>-0.1205800502142691</v>
-      </c>
-      <c r="JB4" t="n">
-        <v>-0.4448216589956528</v>
-      </c>
-      <c r="JC4" t="n">
-        <v>-0.8184497923220626</v>
-      </c>
-      <c r="JD4" t="n">
-        <v>0.79771690535423</v>
-      </c>
-      <c r="JE4" t="n">
-        <v>0.1648611776198664</v>
-      </c>
-      <c r="JF4" t="n">
-        <v>-0.8637790156229379</v>
-      </c>
-      <c r="JG4" t="n">
-        <v>-0.5744531647015868</v>
-      </c>
-      <c r="JH4" t="n">
-        <v>0.79771690535423</v>
-      </c>
-      <c r="JI4" t="n">
-        <v>0.7809397108058653</v>
-      </c>
-      <c r="JJ4" t="n">
-        <v>-0.4843554663801816</v>
-      </c>
-      <c r="JK4" t="n">
-        <v>0.3315103318464588</v>
-      </c>
-      <c r="JL4" t="n">
-        <v>0.2377019156572396</v>
-      </c>
-      <c r="JM4" t="n">
-        <v>-0.542994279388586</v>
-      </c>
-      <c r="JN4" t="n">
-        <v>0.9816685920009883</v>
-      </c>
-      <c r="JO4" t="n">
-        <v>0.9277432781042846</v>
+        <v>0.8514570775044092</v>
       </c>
     </row>
   </sheetData>
